--- a/MiseAJour_Contenu_Evaluation/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/MiseAJour_Contenu_Evaluation/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T16:28:06+00:00</t>
+    <t>2025-01-20T16:33:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MiseAJour_Contenu_Evaluation/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/MiseAJour_Contenu_Evaluation/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T16:33:41+00:00</t>
+    <t>2025-01-21T09:28:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MiseAJour_Contenu_Evaluation/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/MiseAJour_Contenu_Evaluation/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T09:28:55+00:00</t>
+    <t>2025-01-27T09:04:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MiseAJour_Contenu_Evaluation/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/MiseAJour_Contenu_Evaluation/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T09:04:30+00:00</t>
+    <t>2025-01-27T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MiseAJour_Contenu_Evaluation/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/MiseAJour_Contenu_Evaluation/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T09:11:56+00:00</t>
+    <t>2025-01-28T16:33:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
